--- a/Sprint Backlog (1).xlsx
+++ b/Sprint Backlog (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Task ID</t>
   </si>
@@ -110,7 +110,16 @@
     <t>In Progress</t>
   </si>
   <si>
-    <t>desiging Home page using HTML5+CSS</t>
+    <t>Join the home page with the login and passenger page</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done </t>
+  </si>
+  <si>
+    <t>desiging the Home page using HTML5+CSS</t>
   </si>
 </sst>
 </file>
@@ -644,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -676,6 +685,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -763,8 +774,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1082,13 +1092,13 @@
   <dimension ref="D2:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" customWidth="1"/>
+    <col min="5" max="5" width="48.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" customWidth="1"/>
@@ -1107,66 +1117,66 @@
   <sheetData>
     <row r="2" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="53" t="s">
+      <c r="I3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="35" t="s">
+      <c r="J3" s="55"/>
+      <c r="K3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="41" t="s">
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="43"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="45"/>
     </row>
     <row r="4" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="59"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="55"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="57"/>
       <c r="I4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="46"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="48"/>
     </row>
     <row r="5" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="15">
@@ -1250,7 +1260,7 @@
         <v>26</v>
       </c>
       <c r="K6" s="4"/>
-      <c r="L6" s="61"/>
+      <c r="L6" s="32"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -1267,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>23</v>
@@ -1284,7 +1294,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="60"/>
+      <c r="O7" s="31"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="5"/>
@@ -1294,11 +1304,21 @@
       <c r="V7" s="7"/>
     </row>
     <row r="8" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D8" s="6"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="D8" s="6">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="7"/>
       <c r="K8" s="20"/>
@@ -1306,7 +1326,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
-      <c r="P8" s="11"/>
+      <c r="P8" s="62"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
@@ -1756,15 +1776,15 @@
       <c r="V29" s="10"/>
     </row>
     <row r="30" spans="4:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="49"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="51"/>
       <c r="K30" s="4"/>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
@@ -1779,13 +1799,13 @@
       <c r="V30" s="18"/>
     </row>
     <row r="31" spans="4:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="50"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="54"/>
       <c r="K31" s="21"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
@@ -1808,19 +1828,19 @@
       <c r="E35" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="31" t="s">
+      <c r="F35" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
       <c r="Q35" s="27"/>
       <c r="R35" s="28"/>
     </row>
@@ -1828,19 +1848,19 @@
       <c r="E36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="32" t="s">
+      <c r="F36" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
       <c r="Q36" s="29"/>
       <c r="R36" s="30"/>
     </row>
@@ -1848,19 +1868,19 @@
       <c r="E37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="32" t="s">
+      <c r="F37" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
       <c r="Q37" s="29"/>
       <c r="R37" s="30"/>
     </row>
@@ -1868,21 +1888,21 @@
       <c r="E38" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="33" t="s">
+      <c r="F38" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="34"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="13">
